--- a/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-35-ExcelAvancado1-Financiamento-FuncoesFinanceiras.xlsx
+++ b/02-Avancado1-Funcoes/08-PlanilhasExtras/Aula-35-ExcelAvancado1-Financiamento-FuncoesFinanceiras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\08-PlanilhasExtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D46C36-68FF-4104-8CD2-5877C0556482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077BA681-61E7-45A8-B6F7-53F1B97EC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observação" sheetId="3" r:id="rId1"/>
@@ -147,151 +147,60 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>vaamonde</author>
+    <author>tc={BF1D2922-131F-4E2E-AEE4-ACEEC432E1E3}</author>
+    <author>tc={3C67242F-7AF9-4FFA-90B5-0D5EE8E90635}</author>
+    <author>tc={2A0BD20E-6507-411E-A7A6-36A549BC4D51}</author>
+    <author>tc={0F8A5FAA-3550-49B6-9566-9EAB875647F8}</author>
+    <author>tc={5A9CBE3F-A7FE-470E-8380-3AD261B55D81}</author>
+    <author>tc={14B081E3-9DB1-4667-B360-961236D96260}</author>
   </authors>
   <commentList>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{BF1D2922-131F-4E2E-AEE4-ACEEC432E1E3}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Igual ao valor do Financiamento</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Igual ao valor do Financiamento</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{3C67242F-7AF9-4FFA-90B5-0D5EE8E90635}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fazer o cálculo do Juros, utilizando o Saldo Devedor Multiplicado pela Taxa, utilizar a Função =MULT()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fazer o cálculo do Juros, utilizando o Saldo Devedor Multiplicado pela Taxa, utilizar a Função =MULT()</t>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D13" authorId="2" shapeId="0" xr:uid="{2A0BD20E-6507-411E-A7A6-36A549BC4D51}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fazer a subtração do Valor do Pagamento - o Valor do Juros</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fazer a subtração do Valor do Pagamento - o Valor do Juros</t>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="E13" authorId="3" shapeId="0" xr:uid="{0F8A5FAA-3550-49B6-9566-9EAB875647F8}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fazer o cálculo do =PGTO(), utilizar nesse cenário F4 e fazer a cópia relativa, utilizar também o sinal de - para deixar em positivo o valor</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fazer o cálculo do =PGTO(), utilizar nesse cenário F4 e fazer a cópia relativa, utilizar também o sinal de - para deixar o valor em positivo</t>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F13" authorId="4" shapeId="0" xr:uid="{5A9CBE3F-A7FE-470E-8380-3AD261B55D81}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Finalização do Cálculo, utilizar o valor do Saldo Devedor Anterior - a Amortização</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Finalização do Cálculo, utilizar o valor do Saldo Devedor Anterior - a Amortização</t>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="B37" authorId="5" shapeId="0" xr:uid="{14B081E3-9DB1-4667-B360-961236D96260}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>vaamonde:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Utilizar o recurso de Auto soma</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar o recurso de Auto soma</t>
       </text>
     </comment>
   </commentList>
@@ -792,7 +701,7 @@
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,19 +803,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1048,6 +944,12 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1335,39 +1237,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,118 +1396,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3707,11 +3609,34 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F12" dT="2025-02-19T23:36:09.86" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{BF1D2922-131F-4E2E-AEE4-ACEEC432E1E3}">
+    <text>Igual ao valor do Financiamento</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2025-02-19T23:37:01.46" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{3C67242F-7AF9-4FFA-90B5-0D5EE8E90635}">
+    <text>Fazer o cálculo do Juros, utilizando o Saldo Devedor Multiplicado pela Taxa, utilizar a Função =MULT()</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2025-02-19T23:37:24.13" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{2A0BD20E-6507-411E-A7A6-36A549BC4D51}">
+    <text>Fazer a subtração do Valor do Pagamento - o Valor do Juros</text>
+  </threadedComment>
+  <threadedComment ref="E13" dT="2025-02-19T23:38:18.34" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{0F8A5FAA-3550-49B6-9566-9EAB875647F8}">
+    <text>Fazer o cálculo do =PGTO(), utilizar nesse cenário F4 e fazer a cópia relativa, utilizar também o sinal de - para deixar o valor em positivo</text>
+  </threadedComment>
+  <threadedComment ref="F13" dT="2025-02-19T23:38:45.26" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{5A9CBE3F-A7FE-470E-8380-3AD261B55D81}">
+    <text>Finalização do Cálculo, utilizar o valor do Saldo Devedor Anterior - a Amortização</text>
+  </threadedComment>
+  <threadedComment ref="B37" dT="2025-02-19T23:39:51.87" personId="{6D1DB49A-150B-4BCE-A420-6000E612F09E}" id="{14B081E3-9DB1-4667-B360-961236D96260}">
+    <text>Utilizar o recurso de Auto soma</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
@@ -3730,158 +3655,158 @@
     <col min="17" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="70" customFormat="1"/>
-    <row r="2" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="72" t="s">
+    <row r="1" spans="2:11" s="47" customFormat="1"/>
+    <row r="2" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="4" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-    </row>
-    <row r="5" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-    </row>
-    <row r="6" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
       <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="2:11" ht="28.5">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="2:11" ht="26.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="2:11" ht="30" customHeight="1">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="2:11" ht="23.25" customHeight="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="2:11" ht="19.5">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:11" ht="19.5">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" ht="15" customHeight="1"/>
     <row r="18" ht="15" customHeight="1"/>
@@ -3889,14 +3814,14 @@
     <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="B2:H6"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H11"/>
     <mergeCell ref="B12:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3906,9 +3831,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
@@ -3925,70 +3852,70 @@
     <col min="15" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="70" customFormat="1"/>
-    <row r="2" spans="1:9" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="80" t="s">
+    <row r="1" spans="1:9" s="47" customFormat="1"/>
+    <row r="2" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-    </row>
-    <row r="3" spans="1:9" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-    </row>
-    <row r="6" spans="1:9" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" ht="26.25">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:9" ht="26.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="9"/>
@@ -3997,44 +3924,44 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" spans="1:9" ht="26.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="10" t="s">
@@ -4067,79 +3994,79 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6">
       <c r="E22" s="19"/>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="2:6" ht="26.25">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="10" t="s">
@@ -4172,76 +4099,76 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="2:6"/>
     <row r="35" spans="2:6">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="2:6" ht="26.25">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="10" t="s">
@@ -4274,76 +4201,76 @@
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="2:6" ht="15" customHeight="1">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46" spans="2:6"/>
     <row r="47" spans="2:6">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
     </row>
     <row r="51" spans="2:6" ht="26.25">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="10" t="s">
@@ -4376,36 +4303,36 @@
       <c r="F53" s="20"/>
     </row>
     <row r="54" spans="2:6" ht="15" customHeight="1">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1">
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="14"/>
@@ -4414,43 +4341,43 @@
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
     </row>
     <row r="63" spans="2:6" ht="26.25">
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
     </row>
     <row r="64" spans="2:6" ht="30">
       <c r="B64" s="10" t="s">
@@ -4483,36 +4410,36 @@
       <c r="F65" s="20"/>
     </row>
     <row r="66" spans="2:6" ht="15" customHeight="1">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
     </row>
     <row r="68" spans="2:6" ht="15" customHeight="1">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="17"/>
@@ -4521,83 +4448,103 @@
       <c r="E70" s="17"/>
     </row>
     <row r="71" spans="2:6" ht="26.25">
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
     </row>
     <row r="72" spans="2:6" ht="26.25">
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78" t="s">
+      <c r="C72" s="58"/>
+      <c r="D72" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
     </row>
     <row r="73" spans="2:6" ht="26.25">
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78" t="s">
+      <c r="C73" s="58"/>
+      <c r="D73" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
     </row>
     <row r="74" spans="2:6" ht="26.25">
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78" t="s">
+      <c r="C74" s="58"/>
+      <c r="D74" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="2:6" ht="26.25">
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78" t="s">
+      <c r="C75" s="58"/>
+      <c r="D75" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="2:6" ht="26.25">
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78" t="s">
+      <c r="C76" s="58"/>
+      <c r="D76" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
     </row>
     <row r="77" spans="2:6" ht="26.25">
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78" t="s">
+      <c r="C77" s="58"/>
+      <c r="D77" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="2:6"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B47:F50"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B59:F62"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B54:F55"/>
+    <mergeCell ref="B56:F57"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B42:F43"/>
+    <mergeCell ref="B44:F45"/>
+    <mergeCell ref="B35:F38"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B23:F26"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="B11:F14"/>
     <mergeCell ref="B2:F6"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="D77:F77"/>
@@ -4614,26 +4561,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B30:F31"/>
     <mergeCell ref="B32:F33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B42:F43"/>
-    <mergeCell ref="B44:F45"/>
-    <mergeCell ref="B35:F38"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B23:F26"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="B11:F14"/>
-    <mergeCell ref="B47:F50"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B59:F62"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B54:F55"/>
-    <mergeCell ref="B56:F57"/>
-    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4644,9 +4571,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4663,61 +4590,61 @@
     <col min="15" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="70" customFormat="1"/>
-    <row r="2" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="72" t="s">
+    <row r="1" spans="2:11" s="47" customFormat="1"/>
+    <row r="2" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-    </row>
-    <row r="3" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-    </row>
-    <row r="4" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" spans="2:11" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="2:11" ht="23.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1">
       <c r="B9" s="23" t="s">
@@ -4737,7 +4664,7 @@
       <c r="B10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="49">
         <v>24</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -5010,7 +4937,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5033,60 +4960,60 @@
     <col min="17" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="70" customFormat="1"/>
-    <row r="2" spans="2:14" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="80" t="s">
+    <row r="1" spans="2:14" s="47" customFormat="1"/>
+    <row r="2" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="2:14" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="2:14" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="2:14" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="2:14" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -5094,257 +5021,257 @@
       <c r="N7"/>
     </row>
     <row r="8" spans="2:14" ht="23.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1">
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1">
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1"/>
     <row r="18" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="68">
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93">
         <v>50000</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="59">
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="96">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1">
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="60">
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="97">
         <v>36</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="61">
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="98">
         <f>PRODUCT(E28:E29,(E30/12))</f>
         <v>2475</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="62">
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="99">
         <f>SUM(E28,E31)</f>
         <v>52475</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
       <c r="B33" s="26" t="s">
@@ -5560,55 +5487,55 @@
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1"/>
     <row r="42" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1"/>
     <row r="48" spans="2:8" ht="15" customHeight="1">
@@ -5924,16 +5851,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H11"/>
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="B14:H16"/>
-    <mergeCell ref="B2:H6"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
     <mergeCell ref="B44:H46"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
@@ -5945,6 +5862,16 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H11"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="B14:H16"/>
+    <mergeCell ref="B2:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
@@ -5954,7 +5881,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5967,32 +5894,32 @@
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="70" customFormat="1"/>
-    <row r="2" spans="2:3" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="2:3" s="47" customFormat="1"/>
+    <row r="2" spans="2:3" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="100" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="100"/>
     </row>
-    <row r="3" spans="2:3" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="2:3" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="B3" s="100"/>
       <c r="C3" s="100"/>
     </row>
-    <row r="4" spans="2:3" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="2:3" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
     </row>
-    <row r="5" spans="2:3" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="2:3" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
     </row>
-    <row r="6" spans="2:3" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="2:3" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
